--- a/DSA Sheet/FINAL450.xlsx
+++ b/DSA Sheet/FINAL450.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,15 +15,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1532,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1557,6 +1552,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1876,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="26.5"/>
@@ -1931,8 +1929,8 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
+      <c r="C7" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="35.5">
@@ -1942,8 +1940,8 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="35.5">
@@ -1953,8 +1951,8 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="35.5">
@@ -1964,8 +1962,8 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="35.5">

--- a/DSA Sheet/FINAL450.xlsx
+++ b/DSA Sheet/FINAL450.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASHUTOSH\Java Practice Question\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7CF24F-2977-45A9-B020-5536EA96FACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1428,12 +1428,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1441,7 +1441,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1456,7 +1456,7 @@
       <u/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1464,7 +1464,7 @@
       <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1472,14 +1472,14 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1487,7 +1487,7 @@
       <b/>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1495,7 +1495,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Mangal"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <scheme val="minor"/>
     </font>
@@ -1871,21 +1871,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="26.5"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.5">
+    <row r="1" spans="1:3" ht="25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="33.5">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="35.5">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="35.5">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="35.5">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="35.5">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="35.5">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="35.5">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1977,29 +1977,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="35.5">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="35.5">
+      <c r="C12" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="35.5">
+      <c r="C13" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="35.5">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="35.5">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="35.5">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="35.5">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="35.5">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="35.5">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="35.5">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="35.5">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="35.5">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="35.5">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="35.5">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="35.5">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="35.5">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="35.5">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="35.5">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="35.5">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="35.5">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="35.5">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="35.5">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="35.5">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="35.5">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="35.5">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="35.5">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="35.5">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="35.5">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="35.5">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="35.5">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,20 +2307,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="35.5">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="35.5">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="35.5">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="35.5">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="35.5">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="35.5">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="35.5">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="35.5">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="35.5">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="35.5">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="35.5">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="35.5">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2430,12 +2430,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="35.5">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="35.5">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="35.5">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="35.5">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="35.5">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="35.5">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="35.5">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="35.5">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="35.5">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="35.5">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="35.5">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="35.5">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="35.5">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="35.5">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="35.5">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="35.5">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="35.5">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="35.5">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="35.5">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="35.5">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="35.5">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="35.5">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="35.5">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="35.5">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="35.5">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="35.5">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="35.5">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="35.5">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="35.5">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="35.5">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="35.5">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="35.5">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="35.5">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="35.5">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="35.5">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="35.5">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="35.5">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="35.5">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="35.5">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="35.5">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="35.5">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="35.5">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="35.5">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="35.5">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -2908,12 +2908,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="35.5">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="35.5">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="35.5">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="35.5">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="35.5">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="35.5">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="35.5">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="35.5">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="35.5">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="35.5">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="35.5">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="35.5">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="35.5">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="35.5">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="35.5">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="35.5">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="35.5">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="35.5">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="35.5">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="35.5">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="35.5">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="35.5">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="35.5">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="35.5">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="35.5">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="35.5">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="35.5">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="35.5">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="35.5">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="35.5">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="35.5">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="35.5">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="35.5">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="35.5">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="35.5">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="35.5">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="35.5">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3309,11 +3309,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="35.5">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="35.5">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="35.5">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="35.5">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="35.5">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="35.5">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="35.5">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="35.5">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="35.5">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="35.5">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="35.5">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="35.5">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="35.5">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="35.5">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="35.5">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="35.5">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="35.5">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="35.5">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="35.5">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="35.5">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="35.5">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="35.5">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="35.5">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="35.5">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="35.5">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="35.5">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="35.5">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="35.5">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="35.5">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="35.5">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="35.5">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="35.5">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="35.5">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="35.5">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="35.5">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="35.5">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="35.5">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3709,11 +3709,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="35.5">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="35.5">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="35.5">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="35.5">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="35.5">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="35.5">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="35.5">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="35.5">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="35.5">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="35.5">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="35.5">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="35.5">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="35.5">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="35.5">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="35.5">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="35.5">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="35.5">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="35.5">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="35.5">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="35.5">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="35.5">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="35.5">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="35.5">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="35.5">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="35.5">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="35.5">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="35.5">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="35.5">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="35.5">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="35.5">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="35.5">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="35.5">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="35.5">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="35.5">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="35.5">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="35.5">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4098,17 +4098,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="35.5">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="35.5">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="35.5">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="35.5">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="35.5">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="35.5">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="35.5">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="35.5">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="35.5">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="35.5">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="35.5">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="35.5">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="35.5">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="35.5">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="35.5">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="35.5">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="35.5">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="35.5">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="35.5">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="35.5">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="35.5">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="35.5">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="35.5">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="35.5">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4350,15 +4350,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="35.5">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="35.5">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="35.5">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="35.5">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="35.5">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="35.5">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="35.5">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="35.5">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="35.5">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="35.5">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="35.5">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="35.5">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="35.5">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="35.5">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="35.5">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="35.5">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="35.5">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="35.5">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="35.5">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="35.5">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="35.5">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="35.5">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="35.5">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="35.5">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="35.5">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="35.5">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="35.5">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="35.5">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="35.5">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="35.5">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="35.5">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="35.5">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="35.5">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="35.5">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="35.5">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="35.5">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="35.5">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4743,15 +4743,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="35.5">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" ht="35.5">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="35.5">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="35.5">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="35.5">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="35.5">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="35.5">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="35.5">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="35.5">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="35.5">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="35.5">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="35.5">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="35.5">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="35.5">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="35.5">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="35.5">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="35.5">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="35.5">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="35.5">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="35.5">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="35.5">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -4960,15 +4960,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="35.5">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="35.5">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="35.5">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="35.5">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="35.5">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="35.5">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="35.5">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="35.5">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="35.5">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="35.5">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="35.5">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="35.5">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="35.5">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="35.5">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="35.5">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="35.5">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="35.5">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="35.5">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="35.5">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="35.5">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="35.5">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="35.5">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="35.5">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="35.5">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="35.5">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="35.5">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="35.5">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="35.5">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="35.5">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="35.5">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="35.5">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="35.5">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="35.5">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="35.5">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="35.5">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="35.5">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="35.5">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="35.5">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="35.5">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="35.5">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5386,15 +5386,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="35.5">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="35.5">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="35.5">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="35.5">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="35.5">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="35.5">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="35.5">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="35.5">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="35.5">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="35.5">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="35.5">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="35.5">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="35.5">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="35.5">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="35.5">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="35.5">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="35.5">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="35.5">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="35.5">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="35.5">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5592,15 +5592,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="35.5">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="7"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="1:3" ht="35.5">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="1:3" ht="35.5">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="35.5">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="35.5">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="35.5">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="35.5">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="35.5">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="35.5">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="35.5">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="35.5">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="35.5">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="35.5">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="35.5">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="35.5">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="35.5">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="35.5">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="35.5">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="35.5">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="35.5">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="35.5">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="35.5">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="35.5">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="35.5">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="35.5">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="35.5">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="35.5">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="35.5">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="35.5">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="35.5">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="35.5">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="35.5">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="35.5">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="35.5">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="35.5">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="35.5">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="35.5">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="35.5">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="35.5">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="35.5">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="35.5">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="35.5">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="35.5">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="35.5">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="35.5">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="35.5">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6084,15 +6084,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="35.5">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="1:3" ht="35.5">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="1:3" ht="35.5">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="35.5">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="35.5">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="35.5">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="35.5">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="35.5">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6158,15 +6158,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="35.5">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="7"/>
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="1:3" ht="35.5">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="1:3" ht="35.5">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="35.5">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="35.5">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="35.5">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="35.5">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="35.5">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="35.5">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="35.5">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="35.5">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="35.5">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="35.5">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="35.5">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="35.5">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="35.5">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="35.5">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="35.5">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="35.5">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="35.5">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="35.5">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="35.5">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="35.5">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="35.5">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="35.5">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="35.5">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="35.5">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="35.5">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="35.5">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="35.5">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="35.5">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="35.5">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="35.5">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="35.5">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="35.5">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="35.5">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="35.5">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="35.5">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="35.5">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="35.5">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="35.5">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="35.5">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="35.5">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="35.5">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="35.5">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="35.5">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="35.5">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="35.5">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="35.5">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="35.5">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="35.5">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="35.5">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="35.5">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="35.5">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="35.5">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="35.5">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="35.5">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="35.5">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="35.5">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="35.5">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="35.5">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="35.5">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6826,16 +6826,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="35.5">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:3" ht="35.5">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="35.5">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="35.5">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="35.5">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="35.5">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="35.5">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="35.5">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="35.5">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="35.5">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="35.5">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="35.5">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>
@@ -6947,452 +6947,452 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
-    <hyperlink ref="B24" r:id="rId19"/>
-    <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
-    <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
-    <hyperlink ref="B53" r:id="rId46"/>
-    <hyperlink ref="B56" r:id="rId47"/>
-    <hyperlink ref="B57" r:id="rId48"/>
-    <hyperlink ref="B58" r:id="rId49"/>
-    <hyperlink ref="B60" r:id="rId50"/>
-    <hyperlink ref="B61" r:id="rId51"/>
-    <hyperlink ref="B62" r:id="rId52"/>
-    <hyperlink ref="B63" r:id="rId53"/>
-    <hyperlink ref="B64" r:id="rId54"/>
-    <hyperlink ref="B65" r:id="rId55"/>
-    <hyperlink ref="B66" r:id="rId56"/>
-    <hyperlink ref="B67" r:id="rId57"/>
-    <hyperlink ref="B68" r:id="rId58"/>
-    <hyperlink ref="B69" r:id="rId59"/>
-    <hyperlink ref="B70" r:id="rId60"/>
-    <hyperlink ref="B71" r:id="rId61"/>
-    <hyperlink ref="B72" r:id="rId62"/>
-    <hyperlink ref="B73" r:id="rId63"/>
-    <hyperlink ref="B74" r:id="rId64"/>
-    <hyperlink ref="B75" r:id="rId65"/>
-    <hyperlink ref="B76" r:id="rId66"/>
-    <hyperlink ref="B77" r:id="rId67"/>
-    <hyperlink ref="B78" r:id="rId68"/>
-    <hyperlink ref="B79" r:id="rId69"/>
-    <hyperlink ref="B80" r:id="rId70"/>
-    <hyperlink ref="B81" r:id="rId71"/>
-    <hyperlink ref="B82" r:id="rId72"/>
-    <hyperlink ref="B83" r:id="rId73"/>
-    <hyperlink ref="B84" r:id="rId74"/>
-    <hyperlink ref="B85" r:id="rId75"/>
-    <hyperlink ref="B86" r:id="rId76"/>
-    <hyperlink ref="B87" r:id="rId77"/>
-    <hyperlink ref="B88" r:id="rId78"/>
-    <hyperlink ref="B89" r:id="rId79"/>
-    <hyperlink ref="B90" r:id="rId80"/>
-    <hyperlink ref="B91" r:id="rId81"/>
-    <hyperlink ref="B92" r:id="rId82"/>
-    <hyperlink ref="B93" r:id="rId83"/>
-    <hyperlink ref="B94" r:id="rId84"/>
-    <hyperlink ref="B95" r:id="rId85"/>
-    <hyperlink ref="B96" r:id="rId86"/>
-    <hyperlink ref="B97" r:id="rId87"/>
-    <hyperlink ref="B98" r:id="rId88"/>
-    <hyperlink ref="B101" r:id="rId89"/>
-    <hyperlink ref="B102" r:id="rId90"/>
-    <hyperlink ref="B103" r:id="rId91"/>
-    <hyperlink ref="B104" r:id="rId92"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId94"/>
-    <hyperlink ref="B108" r:id="rId95"/>
-    <hyperlink ref="B109" r:id="rId96"/>
-    <hyperlink ref="B110" r:id="rId97"/>
-    <hyperlink ref="B111" r:id="rId98"/>
-    <hyperlink ref="B113" r:id="rId99"/>
-    <hyperlink ref="B114" r:id="rId100"/>
-    <hyperlink ref="B115" r:id="rId101"/>
-    <hyperlink ref="B116" r:id="rId102"/>
-    <hyperlink ref="B117" r:id="rId103"/>
-    <hyperlink ref="B118" r:id="rId104"/>
-    <hyperlink ref="B119" r:id="rId105"/>
-    <hyperlink ref="B120" r:id="rId106"/>
-    <hyperlink ref="B121" r:id="rId107"/>
-    <hyperlink ref="B122" r:id="rId108"/>
-    <hyperlink ref="B123" r:id="rId109"/>
-    <hyperlink ref="B124" r:id="rId110"/>
-    <hyperlink ref="B125" r:id="rId111"/>
-    <hyperlink ref="B126" r:id="rId112"/>
-    <hyperlink ref="B127" r:id="rId113"/>
-    <hyperlink ref="B128" r:id="rId114"/>
-    <hyperlink ref="B129" r:id="rId115"/>
-    <hyperlink ref="B130" r:id="rId116"/>
-    <hyperlink ref="B131" r:id="rId117"/>
-    <hyperlink ref="B132" r:id="rId118"/>
-    <hyperlink ref="B133" r:id="rId119"/>
-    <hyperlink ref="B134" r:id="rId120"/>
-    <hyperlink ref="B135" r:id="rId121"/>
-    <hyperlink ref="B136" r:id="rId122"/>
-    <hyperlink ref="B105" r:id="rId123"/>
-    <hyperlink ref="B112" r:id="rId124"/>
-    <hyperlink ref="B139" r:id="rId125"/>
-    <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127"/>
-    <hyperlink ref="B142" r:id="rId128"/>
-    <hyperlink ref="B143" r:id="rId129"/>
-    <hyperlink ref="B144" r:id="rId130"/>
-    <hyperlink ref="B145" r:id="rId131"/>
-    <hyperlink ref="B146" r:id="rId132"/>
-    <hyperlink ref="B147" r:id="rId133"/>
-    <hyperlink ref="B148" r:id="rId134"/>
-    <hyperlink ref="B149" r:id="rId135"/>
-    <hyperlink ref="B150" r:id="rId136"/>
-    <hyperlink ref="B151" r:id="rId137"/>
-    <hyperlink ref="B152" r:id="rId138"/>
-    <hyperlink ref="B153" r:id="rId139"/>
-    <hyperlink ref="B154" r:id="rId140"/>
-    <hyperlink ref="B155" r:id="rId141"/>
-    <hyperlink ref="B156" r:id="rId142"/>
-    <hyperlink ref="B157" r:id="rId143"/>
-    <hyperlink ref="B158" r:id="rId144"/>
-    <hyperlink ref="B159" r:id="rId145"/>
-    <hyperlink ref="B160" r:id="rId146"/>
-    <hyperlink ref="B161" r:id="rId147"/>
-    <hyperlink ref="B162" r:id="rId148"/>
-    <hyperlink ref="B163" r:id="rId149"/>
-    <hyperlink ref="B166" r:id="rId150"/>
-    <hyperlink ref="B167" r:id="rId151"/>
-    <hyperlink ref="B168" r:id="rId152"/>
-    <hyperlink ref="B169" r:id="rId153"/>
-    <hyperlink ref="B170" r:id="rId154"/>
-    <hyperlink ref="B171" r:id="rId155"/>
-    <hyperlink ref="B172" r:id="rId156"/>
-    <hyperlink ref="B173" r:id="rId157"/>
-    <hyperlink ref="B174" r:id="rId158"/>
-    <hyperlink ref="B177" r:id="rId159"/>
-    <hyperlink ref="B178" r:id="rId160"/>
-    <hyperlink ref="B179" r:id="rId161"/>
-    <hyperlink ref="B180" r:id="rId162"/>
-    <hyperlink ref="B181" r:id="rId163"/>
-    <hyperlink ref="B182" r:id="rId164"/>
-    <hyperlink ref="B183" r:id="rId165"/>
-    <hyperlink ref="B184" r:id="rId166"/>
-    <hyperlink ref="B185" r:id="rId167"/>
-    <hyperlink ref="B186" r:id="rId168"/>
-    <hyperlink ref="B187" r:id="rId169"/>
-    <hyperlink ref="B188" r:id="rId170"/>
-    <hyperlink ref="B189" r:id="rId171"/>
-    <hyperlink ref="B190" r:id="rId172"/>
-    <hyperlink ref="B191" r:id="rId173"/>
-    <hyperlink ref="B192" r:id="rId174"/>
-    <hyperlink ref="B193" r:id="rId175"/>
-    <hyperlink ref="B194" r:id="rId176"/>
-    <hyperlink ref="B195" r:id="rId177"/>
-    <hyperlink ref="B196" r:id="rId178"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId180"/>
-    <hyperlink ref="B199" r:id="rId181"/>
-    <hyperlink ref="B200" r:id="rId182"/>
-    <hyperlink ref="B201" r:id="rId183"/>
-    <hyperlink ref="B202" r:id="rId184"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId186"/>
-    <hyperlink ref="B205" r:id="rId187"/>
-    <hyperlink ref="B206" r:id="rId188"/>
-    <hyperlink ref="B207" r:id="rId189"/>
-    <hyperlink ref="B208" r:id="rId190"/>
-    <hyperlink ref="B209" r:id="rId191"/>
-    <hyperlink ref="B210" r:id="rId192"/>
-    <hyperlink ref="B211" r:id="rId193"/>
-    <hyperlink ref="B214" r:id="rId194"/>
-    <hyperlink ref="B215" r:id="rId195"/>
-    <hyperlink ref="B216" r:id="rId196"/>
-    <hyperlink ref="B217" r:id="rId197"/>
-    <hyperlink ref="B218" r:id="rId198"/>
-    <hyperlink ref="B219" r:id="rId199"/>
-    <hyperlink ref="B220" r:id="rId200"/>
-    <hyperlink ref="B221" r:id="rId201"/>
-    <hyperlink ref="B222" r:id="rId202"/>
-    <hyperlink ref="B223" r:id="rId203"/>
-    <hyperlink ref="B224" r:id="rId204"/>
-    <hyperlink ref="B225" r:id="rId205"/>
-    <hyperlink ref="B226" r:id="rId206"/>
-    <hyperlink ref="B227" r:id="rId207"/>
-    <hyperlink ref="B228" r:id="rId208"/>
-    <hyperlink ref="B229" r:id="rId209"/>
-    <hyperlink ref="B230" r:id="rId210"/>
-    <hyperlink ref="B231" r:id="rId211"/>
-    <hyperlink ref="B232" r:id="rId212"/>
-    <hyperlink ref="B233" r:id="rId213"/>
-    <hyperlink ref="B234" r:id="rId214"/>
-    <hyperlink ref="B235" r:id="rId215"/>
-    <hyperlink ref="B238" r:id="rId216"/>
-    <hyperlink ref="B239" r:id="rId217"/>
-    <hyperlink ref="B240" r:id="rId218"/>
-    <hyperlink ref="B241" r:id="rId219"/>
-    <hyperlink ref="B242" r:id="rId220"/>
-    <hyperlink ref="B243" r:id="rId221"/>
-    <hyperlink ref="B244" r:id="rId222"/>
-    <hyperlink ref="B245" r:id="rId223"/>
-    <hyperlink ref="B246" r:id="rId224"/>
-    <hyperlink ref="B247" r:id="rId225"/>
-    <hyperlink ref="B248" r:id="rId226"/>
-    <hyperlink ref="B249" r:id="rId227"/>
-    <hyperlink ref="B250" r:id="rId228"/>
-    <hyperlink ref="B251" r:id="rId229"/>
-    <hyperlink ref="B252" r:id="rId230"/>
-    <hyperlink ref="B253" r:id="rId231"/>
-    <hyperlink ref="B254" r:id="rId232"/>
-    <hyperlink ref="B255" r:id="rId233"/>
-    <hyperlink ref="B256" r:id="rId234"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId236"/>
-    <hyperlink ref="B259" r:id="rId237"/>
-    <hyperlink ref="B260" r:id="rId238"/>
-    <hyperlink ref="B261" r:id="rId239"/>
-    <hyperlink ref="B262" r:id="rId240"/>
-    <hyperlink ref="B263" r:id="rId241"/>
-    <hyperlink ref="B264" r:id="rId242"/>
-    <hyperlink ref="B265" r:id="rId243"/>
-    <hyperlink ref="B266" r:id="rId244"/>
-    <hyperlink ref="B267" r:id="rId245"/>
-    <hyperlink ref="B268" r:id="rId246"/>
-    <hyperlink ref="B269" r:id="rId247"/>
-    <hyperlink ref="B270" r:id="rId248"/>
-    <hyperlink ref="B271" r:id="rId249"/>
-    <hyperlink ref="B272" r:id="rId250"/>
-    <hyperlink ref="B275" r:id="rId251"/>
-    <hyperlink ref="B276" r:id="rId252"/>
-    <hyperlink ref="B277" r:id="rId253"/>
-    <hyperlink ref="B278" r:id="rId254"/>
-    <hyperlink ref="B279" r:id="rId255"/>
-    <hyperlink ref="B280" r:id="rId256"/>
-    <hyperlink ref="B281" r:id="rId257"/>
-    <hyperlink ref="B282" r:id="rId258"/>
-    <hyperlink ref="B283" r:id="rId259"/>
-    <hyperlink ref="B284" r:id="rId260"/>
-    <hyperlink ref="B285" r:id="rId261"/>
-    <hyperlink ref="B286" r:id="rId262"/>
-    <hyperlink ref="B287" r:id="rId263"/>
-    <hyperlink ref="B288" r:id="rId264"/>
-    <hyperlink ref="B289" r:id="rId265"/>
-    <hyperlink ref="B290" r:id="rId266"/>
-    <hyperlink ref="B291" r:id="rId267"/>
-    <hyperlink ref="B292" r:id="rId268"/>
-    <hyperlink ref="B293" r:id="rId269"/>
-    <hyperlink ref="B296" r:id="rId270"/>
-    <hyperlink ref="B297" r:id="rId271"/>
-    <hyperlink ref="B298" r:id="rId272"/>
-    <hyperlink ref="B299" r:id="rId273"/>
-    <hyperlink ref="B300" r:id="rId274"/>
-    <hyperlink ref="B301" r:id="rId275"/>
-    <hyperlink ref="B302" r:id="rId276"/>
-    <hyperlink ref="B303" r:id="rId277"/>
-    <hyperlink ref="B304" r:id="rId278"/>
-    <hyperlink ref="B305" r:id="rId279"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId281"/>
-    <hyperlink ref="B308" r:id="rId282"/>
-    <hyperlink ref="B309" r:id="rId283"/>
-    <hyperlink ref="B310" r:id="rId284"/>
-    <hyperlink ref="B311" r:id="rId285"/>
-    <hyperlink ref="B312" r:id="rId286"/>
-    <hyperlink ref="B313" r:id="rId287"/>
-    <hyperlink ref="B314" r:id="rId288"/>
-    <hyperlink ref="B315" r:id="rId289"/>
-    <hyperlink ref="B316" r:id="rId290"/>
-    <hyperlink ref="B317" r:id="rId291"/>
-    <hyperlink ref="B318" r:id="rId292"/>
-    <hyperlink ref="B319" r:id="rId293"/>
-    <hyperlink ref="B320" r:id="rId294"/>
-    <hyperlink ref="B321" r:id="rId295"/>
-    <hyperlink ref="B322" r:id="rId296"/>
-    <hyperlink ref="B323" r:id="rId297"/>
-    <hyperlink ref="B324" r:id="rId298"/>
-    <hyperlink ref="B325" r:id="rId299"/>
-    <hyperlink ref="B326" r:id="rId300"/>
-    <hyperlink ref="B327" r:id="rId301"/>
-    <hyperlink ref="B328" r:id="rId302"/>
-    <hyperlink ref="B329" r:id="rId303"/>
-    <hyperlink ref="B330" r:id="rId304"/>
-    <hyperlink ref="B331" r:id="rId305"/>
-    <hyperlink ref="B332" r:id="rId306"/>
-    <hyperlink ref="B333" r:id="rId307"/>
-    <hyperlink ref="B336" r:id="rId308"/>
-    <hyperlink ref="B337" r:id="rId309"/>
-    <hyperlink ref="B338" r:id="rId310"/>
-    <hyperlink ref="B339" r:id="rId311"/>
-    <hyperlink ref="B340" r:id="rId312"/>
-    <hyperlink ref="B341" r:id="rId313"/>
-    <hyperlink ref="B342" r:id="rId314"/>
-    <hyperlink ref="B343" r:id="rId315"/>
-    <hyperlink ref="B344" r:id="rId316"/>
-    <hyperlink ref="B345" r:id="rId317"/>
-    <hyperlink ref="B346" r:id="rId318"/>
-    <hyperlink ref="B347" r:id="rId319"/>
-    <hyperlink ref="B348" r:id="rId320"/>
-    <hyperlink ref="B349" r:id="rId321"/>
-    <hyperlink ref="B350" r:id="rId322"/>
-    <hyperlink ref="B351" r:id="rId323"/>
-    <hyperlink ref="B352" r:id="rId324"/>
-    <hyperlink ref="B353" r:id="rId325"/>
-    <hyperlink ref="B357" r:id="rId326"/>
-    <hyperlink ref="B358" r:id="rId327"/>
-    <hyperlink ref="B359" r:id="rId328"/>
-    <hyperlink ref="B360" r:id="rId329"/>
-    <hyperlink ref="B361" r:id="rId330"/>
-    <hyperlink ref="B362" r:id="rId331"/>
-    <hyperlink ref="B363" r:id="rId332"/>
-    <hyperlink ref="B364" r:id="rId333"/>
-    <hyperlink ref="B365" r:id="rId334"/>
-    <hyperlink ref="B366" r:id="rId335"/>
-    <hyperlink ref="B367" r:id="rId336"/>
-    <hyperlink ref="B368" r:id="rId337"/>
-    <hyperlink ref="B369" r:id="rId338"/>
-    <hyperlink ref="B370" r:id="rId339"/>
-    <hyperlink ref="B371" r:id="rId340"/>
-    <hyperlink ref="B372" r:id="rId341"/>
-    <hyperlink ref="B373" r:id="rId342"/>
-    <hyperlink ref="B374" r:id="rId343"/>
-    <hyperlink ref="B375" r:id="rId344"/>
-    <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId349"/>
-    <hyperlink ref="B381" r:id="rId350"/>
-    <hyperlink ref="B382" r:id="rId351"/>
-    <hyperlink ref="B383" r:id="rId352"/>
-    <hyperlink ref="B384" r:id="rId353"/>
-    <hyperlink ref="B385" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
-    <hyperlink ref="B387" r:id="rId356"/>
-    <hyperlink ref="B388" r:id="rId357"/>
-    <hyperlink ref="B389" r:id="rId358"/>
-    <hyperlink ref="B390" r:id="rId359"/>
-    <hyperlink ref="B391" r:id="rId360"/>
-    <hyperlink ref="B392" r:id="rId361"/>
-    <hyperlink ref="B393" r:id="rId362"/>
-    <hyperlink ref="B394" r:id="rId363"/>
-    <hyperlink ref="B396" r:id="rId364"/>
-    <hyperlink ref="B395" r:id="rId365"/>
-    <hyperlink ref="B397" r:id="rId366"/>
-    <hyperlink ref="B398" r:id="rId367"/>
-    <hyperlink ref="B399" r:id="rId368"/>
-    <hyperlink ref="B402" r:id="rId369"/>
-    <hyperlink ref="B403" r:id="rId370"/>
-    <hyperlink ref="B404" r:id="rId371"/>
-    <hyperlink ref="B405" r:id="rId372"/>
-    <hyperlink ref="B406" r:id="rId373"/>
-    <hyperlink ref="B407" r:id="rId374"/>
-    <hyperlink ref="B410" r:id="rId375"/>
-    <hyperlink ref="B411" r:id="rId376"/>
-    <hyperlink ref="B412" r:id="rId377"/>
-    <hyperlink ref="B413" r:id="rId378"/>
-    <hyperlink ref="B414" r:id="rId379"/>
-    <hyperlink ref="B415" r:id="rId380"/>
-    <hyperlink ref="B416" r:id="rId381"/>
-    <hyperlink ref="B417" r:id="rId382"/>
-    <hyperlink ref="B418" r:id="rId383"/>
-    <hyperlink ref="B419" r:id="rId384"/>
-    <hyperlink ref="B420" r:id="rId385"/>
-    <hyperlink ref="B421" r:id="rId386"/>
-    <hyperlink ref="B422" r:id="rId387"/>
-    <hyperlink ref="B423" r:id="rId388"/>
-    <hyperlink ref="B424" r:id="rId389"/>
-    <hyperlink ref="B425" r:id="rId390"/>
-    <hyperlink ref="B426" r:id="rId391"/>
-    <hyperlink ref="B427" r:id="rId392"/>
-    <hyperlink ref="B428" r:id="rId393"/>
-    <hyperlink ref="B429" r:id="rId394"/>
-    <hyperlink ref="B430" r:id="rId395"/>
-    <hyperlink ref="B431" r:id="rId396"/>
-    <hyperlink ref="B432" r:id="rId397"/>
-    <hyperlink ref="B433" r:id="rId398"/>
-    <hyperlink ref="B434" r:id="rId399"/>
-    <hyperlink ref="B435" r:id="rId400"/>
-    <hyperlink ref="B436" r:id="rId401"/>
-    <hyperlink ref="B437" r:id="rId402"/>
-    <hyperlink ref="B438" r:id="rId403"/>
-    <hyperlink ref="B439" r:id="rId404"/>
-    <hyperlink ref="B440" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B442" r:id="rId407"/>
-    <hyperlink ref="B443" r:id="rId408"/>
-    <hyperlink ref="B444" r:id="rId409"/>
-    <hyperlink ref="B445" r:id="rId410"/>
-    <hyperlink ref="B446" r:id="rId411"/>
-    <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B449" r:id="rId414"/>
-    <hyperlink ref="B451" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B452" r:id="rId417"/>
-    <hyperlink ref="B453" r:id="rId418"/>
-    <hyperlink ref="B454" r:id="rId419"/>
-    <hyperlink ref="B455" r:id="rId420"/>
-    <hyperlink ref="B456" r:id="rId421"/>
-    <hyperlink ref="B457" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B459" r:id="rId424"/>
-    <hyperlink ref="B460" r:id="rId425"/>
-    <hyperlink ref="B461" r:id="rId426"/>
-    <hyperlink ref="B462" r:id="rId427"/>
-    <hyperlink ref="B469" r:id="rId428"/>
-    <hyperlink ref="B468" r:id="rId429"/>
-    <hyperlink ref="B467" r:id="rId430"/>
-    <hyperlink ref="B466" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B464" r:id="rId433"/>
-    <hyperlink ref="B463" r:id="rId434"/>
-    <hyperlink ref="B472" r:id="rId435"/>
-    <hyperlink ref="B473" r:id="rId436"/>
-    <hyperlink ref="B474" r:id="rId437"/>
-    <hyperlink ref="B475" r:id="rId438"/>
-    <hyperlink ref="B476" r:id="rId439"/>
-    <hyperlink ref="B477" r:id="rId440"/>
-    <hyperlink ref="B478" r:id="rId441"/>
-    <hyperlink ref="B481" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId445"/>
-    <hyperlink ref="B2" r:id="rId446"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B111" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B129" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B131" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B132" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B451" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B469" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B468" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B467" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B464" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B463" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B481" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B356" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B2" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId447"/>

--- a/DSA Sheet/FINAL450.xlsx
+++ b/DSA Sheet/FINAL450.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASHUTOSH\Java Practice Question\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7CF24F-2977-45A9-B020-5536EA96FACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{394C6268-7FD5-4BDA-B6F1-582AA785E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C77871-2832-4E1A-9950-EA601FE19F63}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,13 +1432,27 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1497,6 +1520,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1874,28 +1903,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="28.484375" customWidth="1"/>
+    <col min="2" max="2" width="122.94140625" customWidth="1"/>
+    <col min="3" max="3" width="27.49609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25">
+    <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1906,12 +1935,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1922,7 +1951,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1962,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1973,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1955,7 +1984,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1966,18 +1995,18 @@
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="C11" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +2017,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1999,7 +2028,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2021,40 +2050,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
+      <c r="C16" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
+      <c r="C17" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+      <c r="C18" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2076,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -2098,18 +2127,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="21">
+      <c r="C23" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
@@ -2164,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
@@ -2175,7 +2204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2219,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2230,7 +2259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2241,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2274,7 +2303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,20 +2336,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2331,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -2342,7 +2371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -2353,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +2393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>42</v>
       </c>
@@ -2375,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>42</v>
       </c>
@@ -2386,29 +2415,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21">
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>42</v>
       </c>
@@ -2419,7 +2443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2430,12 +2454,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="21">
+      <c r="C55" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
@@ -2446,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>53</v>
       </c>
@@ -2457,7 +2488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>53</v>
       </c>
@@ -2468,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>53</v>
       </c>
@@ -2479,7 +2510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>53</v>
       </c>
@@ -2490,7 +2521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
@@ -2501,7 +2532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -2512,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>53</v>
       </c>
@@ -2523,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>53</v>
       </c>
@@ -2534,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>53</v>
       </c>
@@ -2545,7 +2576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>53</v>
       </c>
@@ -2556,7 +2587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>53</v>
       </c>
@@ -2567,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
@@ -2578,7 +2609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>53</v>
       </c>
@@ -2589,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>53</v>
       </c>
@@ -2600,7 +2631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>53</v>
       </c>
@@ -2611,7 +2642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>53</v>
       </c>
@@ -2622,7 +2653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>53</v>
       </c>
@@ -2644,7 +2675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>53</v>
       </c>
@@ -2677,7 +2708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>53</v>
       </c>
@@ -2688,7 +2719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>53</v>
       </c>
@@ -2699,7 +2730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>53</v>
       </c>
@@ -2710,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2721,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>53</v>
       </c>
@@ -2732,7 +2763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>53</v>
       </c>
@@ -2743,7 +2774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>53</v>
       </c>
@@ -2754,7 +2785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>53</v>
       </c>
@@ -2765,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>53</v>
       </c>
@@ -2776,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>53</v>
       </c>
@@ -2787,7 +2818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>53</v>
       </c>
@@ -2798,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>53</v>
       </c>
@@ -2809,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>53</v>
       </c>
@@ -2820,7 +2851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>53</v>
       </c>
@@ -2831,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
@@ -2842,7 +2873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>53</v>
       </c>
@@ -2853,7 +2884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>53</v>
       </c>
@@ -2864,29 +2895,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
+    </row>
+    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>53</v>
       </c>
@@ -2897,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>53</v>
       </c>
@@ -2908,12 +2934,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C99" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:3" ht="21">
+      <c r="C100" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>97</v>
       </c>
@@ -2924,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>97</v>
       </c>
@@ -2935,7 +2968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>97</v>
       </c>
@@ -2946,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>97</v>
       </c>
@@ -2957,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
@@ -2968,7 +3001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
@@ -2979,7 +3012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>97</v>
       </c>
@@ -2990,7 +3023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>97</v>
       </c>
@@ -3001,7 +3034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>97</v>
       </c>
@@ -3012,7 +3045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>97</v>
       </c>
@@ -3023,7 +3056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>97</v>
       </c>
@@ -3034,7 +3067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -3045,7 +3078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>97</v>
       </c>
@@ -3056,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>97</v>
       </c>
@@ -3067,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21">
+    <row r="115" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>97</v>
       </c>
@@ -3078,7 +3111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>97</v>
       </c>
@@ -3089,7 +3122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>97</v>
       </c>
@@ -3100,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>97</v>
       </c>
@@ -3111,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row r="119" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>97</v>
       </c>
@@ -3122,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
@@ -3133,7 +3166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>97</v>
       </c>
@@ -3144,7 +3177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>97</v>
       </c>
@@ -3155,7 +3188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>97</v>
       </c>
@@ -3166,7 +3199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>97</v>
       </c>
@@ -3177,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>97</v>
       </c>
@@ -3188,7 +3221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
         <v>97</v>
       </c>
@@ -3199,7 +3232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>97</v>
       </c>
@@ -3210,7 +3243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>97</v>
       </c>
@@ -3221,7 +3254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
         <v>97</v>
       </c>
@@ -3232,7 +3265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
         <v>97</v>
       </c>
@@ -3243,7 +3276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
         <v>97</v>
       </c>
@@ -3254,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -3265,29 +3298,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="21">
+    </row>
+    <row r="134" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="21">
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
         <v>97</v>
       </c>
@@ -3298,7 +3326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
@@ -3309,11 +3337,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C137" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B138" s="7"/>
-      <c r="C138" s="4"/>
-    </row>
-    <row r="139" spans="1:3" ht="21">
+      <c r="C138" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>134</v>
       </c>
@@ -3324,7 +3359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row r="140" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>134</v>
       </c>
@@ -3335,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row r="141" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>134</v>
       </c>
@@ -3346,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row r="142" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>134</v>
       </c>
@@ -3357,7 +3392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row r="143" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>134</v>
       </c>
@@ -3368,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row r="144" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>134</v>
       </c>
@@ -3379,7 +3414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>134</v>
       </c>
@@ -3390,7 +3425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
@@ -3401,7 +3436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>134</v>
       </c>
@@ -3412,7 +3447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row r="148" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>134</v>
       </c>
@@ -3423,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>134</v>
       </c>
@@ -3434,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>134</v>
       </c>
@@ -3445,7 +3480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>134</v>
       </c>
@@ -3456,7 +3491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
@@ -3467,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>134</v>
       </c>
@@ -3478,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>134</v>
       </c>
@@ -3489,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>134</v>
       </c>
@@ -3500,7 +3535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>134</v>
       </c>
@@ -3511,7 +3546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>134</v>
       </c>
@@ -3522,7 +3557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
@@ -3533,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>134</v>
       </c>
@@ -3544,7 +3579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>134</v>
       </c>
@@ -3555,7 +3590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row r="161" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>134</v>
       </c>
@@ -3566,7 +3601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
+    <row r="162" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>134</v>
       </c>
@@ -3577,7 +3612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
+    <row r="163" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>134</v>
       </c>
@@ -3588,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
+    <row r="164" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
@@ -3599,7 +3634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
+    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>134</v>
       </c>
@@ -3610,7 +3645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
+    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>134</v>
       </c>
@@ -3621,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21">
+    <row r="167" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>134</v>
       </c>
@@ -3632,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row r="168" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>134</v>
       </c>
@@ -3643,7 +3678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row r="169" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>134</v>
       </c>
@@ -3654,7 +3689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
+    <row r="170" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
@@ -3665,29 +3700,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
+    <row r="171" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="21">
+    </row>
+    <row r="172" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21">
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -3698,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
+    <row r="174" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>134</v>
       </c>
@@ -3709,11 +3739,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C175" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
-      <c r="C176" s="4"/>
-    </row>
-    <row r="177" spans="1:3" ht="21">
+      <c r="C176" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>171</v>
       </c>
@@ -3724,7 +3761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>171</v>
       </c>
@@ -3735,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>171</v>
       </c>
@@ -3746,7 +3783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A180" s="5" t="s">
         <v>171</v>
       </c>
@@ -3757,7 +3794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>171</v>
       </c>
@@ -3768,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>171</v>
       </c>
@@ -3779,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>171</v>
       </c>
@@ -3790,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>171</v>
       </c>
@@ -3801,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A185" s="5" t="s">
         <v>171</v>
       </c>
@@ -3812,7 +3849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row r="186" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>171</v>
       </c>
@@ -3823,7 +3860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row r="187" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>171</v>
       </c>
@@ -3834,7 +3871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row r="188" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>171</v>
       </c>
@@ -3845,7 +3882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row r="189" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>171</v>
       </c>
@@ -3856,7 +3893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>171</v>
       </c>
@@ -3867,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>171</v>
       </c>
@@ -3878,7 +3915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>171</v>
       </c>
@@ -3889,7 +3926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row r="193" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>171</v>
       </c>
@@ -3900,7 +3937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A194" s="5" t="s">
         <v>171</v>
       </c>
@@ -3911,7 +3948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row r="195" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A195" s="5" t="s">
         <v>171</v>
       </c>
@@ -3922,7 +3959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A196" s="5" t="s">
         <v>171</v>
       </c>
@@ -3933,7 +3970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>171</v>
       </c>
@@ -3944,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>171</v>
       </c>
@@ -3955,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row r="199" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>171</v>
       </c>
@@ -3966,7 +4003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
         <v>171</v>
       </c>
@@ -3977,7 +4014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>171</v>
       </c>
@@ -3988,7 +4025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>171</v>
       </c>
@@ -3999,7 +4036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
         <v>171</v>
       </c>
@@ -4010,7 +4047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
         <v>171</v>
       </c>
@@ -4021,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A205" s="5" t="s">
         <v>171</v>
       </c>
@@ -4032,7 +4069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A206" s="5" t="s">
         <v>171</v>
       </c>
@@ -4043,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A207" s="5" t="s">
         <v>171</v>
       </c>
@@ -4054,29 +4091,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A208" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C208" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
+      <c r="C208" s="4"/>
+    </row>
+    <row r="209" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A209" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
+      <c r="C209" s="4"/>
+    </row>
+    <row r="210" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
         <v>171</v>
       </c>
@@ -4087,7 +4120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21">
+    <row r="211" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A211" s="5" t="s">
         <v>171</v>
       </c>
@@ -4098,17 +4131,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row r="212" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
-    </row>
-    <row r="213" spans="1:3" ht="21">
+      <c r="C212" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
-      <c r="C213" s="4"/>
-    </row>
-    <row r="214" spans="1:3" ht="21">
+      <c r="C213" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>207</v>
       </c>
@@ -4119,7 +4156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>207</v>
       </c>
@@ -4130,7 +4167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>207</v>
       </c>
@@ -4141,7 +4178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
         <v>207</v>
       </c>
@@ -4152,7 +4189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
         <v>207</v>
       </c>
@@ -4163,7 +4200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
         <v>207</v>
       </c>
@@ -4174,7 +4211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
         <v>207</v>
       </c>
@@ -4185,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
         <v>207</v>
       </c>
@@ -4196,7 +4233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
         <v>207</v>
       </c>
@@ -4207,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
         <v>207</v>
       </c>
@@ -4218,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
         <v>207</v>
       </c>
@@ -4229,7 +4266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A225" s="5" t="s">
         <v>207</v>
       </c>
@@ -4240,7 +4277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A226" s="5" t="s">
         <v>207</v>
       </c>
@@ -4251,7 +4288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A227" s="5" t="s">
         <v>207</v>
       </c>
@@ -4262,7 +4299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A228" s="5" t="s">
         <v>207</v>
       </c>
@@ -4273,7 +4310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>207</v>
       </c>
@@ -4284,7 +4321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>207</v>
       </c>
@@ -4295,7 +4332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
         <v>207</v>
       </c>
@@ -4306,29 +4343,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C232" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21">
+      <c r="C232" s="4"/>
+    </row>
+    <row r="233" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="21">
+      <c r="C233" s="4"/>
+    </row>
+    <row r="234" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
         <v>207</v>
       </c>
@@ -4339,7 +4372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
         <v>207</v>
       </c>
@@ -4350,15 +4383,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
-      <c r="C236" s="4"/>
-    </row>
-    <row r="237" spans="1:3" ht="21">
+      <c r="C236" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
-      <c r="C237" s="4"/>
-    </row>
-    <row r="238" spans="1:3" ht="21">
+      <c r="C237" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
         <v>230</v>
       </c>
@@ -4369,7 +4406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -4380,7 +4417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>230</v>
       </c>
@@ -4391,7 +4428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>230</v>
       </c>
@@ -4402,7 +4439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>230</v>
       </c>
@@ -4413,7 +4450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>230</v>
       </c>
@@ -4424,7 +4461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>230</v>
       </c>
@@ -4435,7 +4472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>230</v>
       </c>
@@ -4446,7 +4483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>230</v>
       </c>
@@ -4457,7 +4494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>230</v>
       </c>
@@ -4468,7 +4505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row r="248" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>230</v>
       </c>
@@ -4479,7 +4516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>230</v>
       </c>
@@ -4490,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>230</v>
       </c>
@@ -4501,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>230</v>
       </c>
@@ -4512,7 +4549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>230</v>
       </c>
@@ -4523,7 +4560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>230</v>
       </c>
@@ -4534,7 +4571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>230</v>
       </c>
@@ -4545,7 +4582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>230</v>
       </c>
@@ -4556,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>230</v>
       </c>
@@ -4567,7 +4604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>230</v>
       </c>
@@ -4578,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>230</v>
       </c>
@@ -4589,7 +4626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>230</v>
       </c>
@@ -4600,7 +4637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row r="260" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
         <v>230</v>
       </c>
@@ -4611,7 +4648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A261" s="5" t="s">
         <v>230</v>
       </c>
@@ -4622,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A262" s="5" t="s">
         <v>230</v>
       </c>
@@ -4633,7 +4670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A263" s="5" t="s">
         <v>230</v>
       </c>
@@ -4644,7 +4681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A264" s="5" t="s">
         <v>230</v>
       </c>
@@ -4655,7 +4692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A265" s="5" t="s">
         <v>230</v>
       </c>
@@ -4666,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
         <v>230</v>
       </c>
@@ -4677,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
         <v>230</v>
       </c>
@@ -4688,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A268" s="5" t="s">
         <v>230</v>
       </c>
@@ -4699,29 +4736,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A269" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C269" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="21">
+      <c r="C269" s="4"/>
+    </row>
+    <row r="270" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A270" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C270" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="21">
+      <c r="C270" s="4"/>
+    </row>
+    <row r="271" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A271" s="5" t="s">
         <v>230</v>
       </c>
@@ -4732,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A272" s="5" t="s">
         <v>230</v>
       </c>
@@ -4743,15 +4776,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B273" s="7"/>
-      <c r="C273" s="4"/>
-    </row>
-    <row r="274" spans="1:3" ht="21">
+      <c r="C273" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B274" s="7"/>
-      <c r="C274" s="4"/>
-    </row>
-    <row r="275" spans="1:3" ht="21">
+      <c r="C274" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>265</v>
       </c>
@@ -4762,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>265</v>
       </c>
@@ -4773,7 +4810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>265</v>
       </c>
@@ -4784,7 +4821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>265</v>
       </c>
@@ -4795,7 +4832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>265</v>
       </c>
@@ -4806,7 +4843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row r="280" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>265</v>
       </c>
@@ -4817,7 +4854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row r="281" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>265</v>
       </c>
@@ -4828,7 +4865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>265</v>
       </c>
@@ -4839,7 +4876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>265</v>
       </c>
@@ -4850,7 +4887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>265</v>
       </c>
@@ -4861,7 +4898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>265</v>
       </c>
@@ -4872,7 +4909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>265</v>
       </c>
@@ -4883,7 +4920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>265</v>
       </c>
@@ -4894,7 +4931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>265</v>
       </c>
@@ -4905,7 +4942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>265</v>
       </c>
@@ -4916,29 +4953,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C290" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="21">
+      <c r="C290" s="4"/>
+    </row>
+    <row r="291" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>265</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C291" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="21">
+      <c r="C291" s="4"/>
+    </row>
+    <row r="292" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>265</v>
       </c>
@@ -4949,7 +4982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row r="293" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>265</v>
       </c>
@@ -4960,15 +4993,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row r="294" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B294" s="7"/>
-      <c r="C294" s="4"/>
-    </row>
-    <row r="295" spans="1:3" ht="21">
+      <c r="C294" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B295" s="7"/>
-      <c r="C295" s="4"/>
-    </row>
-    <row r="296" spans="1:3" ht="21">
+      <c r="C295" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>285</v>
       </c>
@@ -4979,7 +5016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>285</v>
       </c>
@@ -4990,7 +5027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>285</v>
       </c>
@@ -5001,7 +5038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>285</v>
       </c>
@@ -5012,7 +5049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>285</v>
       </c>
@@ -5023,7 +5060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>285</v>
       </c>
@@ -5034,7 +5071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>285</v>
       </c>
@@ -5045,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>285</v>
       </c>
@@ -5056,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>285</v>
       </c>
@@ -5067,7 +5104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
+    <row r="305" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>285</v>
       </c>
@@ -5078,7 +5115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row r="306" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>285</v>
       </c>
@@ -5089,7 +5126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row r="307" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>285</v>
       </c>
@@ -5100,7 +5137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row r="308" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>285</v>
       </c>
@@ -5111,7 +5148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row r="309" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>285</v>
       </c>
@@ -5122,7 +5159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
+    <row r="310" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>285</v>
       </c>
@@ -5133,7 +5170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21">
+    <row r="311" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>285</v>
       </c>
@@ -5144,7 +5181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row r="312" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>285</v>
       </c>
@@ -5155,7 +5192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row r="313" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>285</v>
       </c>
@@ -5166,7 +5203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row r="314" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>285</v>
       </c>
@@ -5177,7 +5214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row r="315" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>285</v>
       </c>
@@ -5188,7 +5225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row r="316" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>285</v>
       </c>
@@ -5199,7 +5236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>285</v>
       </c>
@@ -5210,7 +5247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>285</v>
       </c>
@@ -5221,7 +5258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>285</v>
       </c>
@@ -5232,7 +5269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>285</v>
       </c>
@@ -5243,7 +5280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5254,7 +5291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
@@ -5265,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row r="323" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5276,7 +5313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5287,7 +5324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5298,7 +5335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5309,7 +5346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5320,7 +5357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5331,7 +5368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5342,29 +5379,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C330" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="21">
+      <c r="C330" s="4"/>
+    </row>
+    <row r="331" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C331" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="21">
+      <c r="C331" s="4"/>
+    </row>
+    <row r="332" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5375,7 +5408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5386,15 +5419,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
-    </row>
-    <row r="335" spans="1:3" ht="21">
+      <c r="C334" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B335" s="7"/>
-      <c r="C335" s="4"/>
-    </row>
-    <row r="336" spans="1:3" ht="21">
+      <c r="C335" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5405,7 +5442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
+    <row r="337" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
         <v>324</v>
       </c>
@@ -5416,7 +5453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row r="338" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
         <v>324</v>
       </c>
@@ -5427,7 +5464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row r="339" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
         <v>324</v>
       </c>
@@ -5438,7 +5475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
+    <row r="340" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
         <v>324</v>
       </c>
@@ -5449,7 +5486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
+    <row r="341" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A341" s="8" t="s">
         <v>324</v>
       </c>
@@ -5460,7 +5497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
         <v>324</v>
       </c>
@@ -5471,7 +5508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
         <v>324</v>
       </c>
@@ -5482,7 +5519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
         <v>324</v>
       </c>
@@ -5493,7 +5530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
         <v>324</v>
       </c>
@@ -5504,7 +5541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
+    <row r="346" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
         <v>324</v>
       </c>
@@ -5515,7 +5552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
+    <row r="347" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
         <v>324</v>
       </c>
@@ -5526,7 +5563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row r="348" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
         <v>324</v>
       </c>
@@ -5537,7 +5574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="349" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
         <v>324</v>
       </c>
@@ -5548,29 +5585,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C350" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="21">
+      <c r="C350" s="4"/>
+    </row>
+    <row r="351" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C351" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="21">
+      <c r="C351" s="4"/>
+    </row>
+    <row r="352" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
         <v>324</v>
       </c>
@@ -5581,7 +5614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
         <v>324</v>
       </c>
@@ -5592,15 +5625,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
-    </row>
-    <row r="355" spans="1:3" ht="21">
+      <c r="C354" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B355" s="7"/>
-      <c r="C355" s="4"/>
-    </row>
-    <row r="356" spans="1:3" ht="21">
+      <c r="C355" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
         <v>343</v>
       </c>
@@ -5611,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
+    <row r="357" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
         <v>343</v>
       </c>
@@ -5622,7 +5659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
+    <row r="358" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
         <v>343</v>
       </c>
@@ -5633,7 +5670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
+    <row r="359" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A359" s="8" t="s">
         <v>343</v>
       </c>
@@ -5644,7 +5681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
+    <row r="360" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="s">
         <v>343</v>
       </c>
@@ -5655,7 +5692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21">
+    <row r="361" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A361" s="8" t="s">
         <v>343</v>
       </c>
@@ -5666,7 +5703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
+    <row r="362" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A362" s="8" t="s">
         <v>343</v>
       </c>
@@ -5677,7 +5714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
+    <row r="363" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A363" s="8" t="s">
         <v>343</v>
       </c>
@@ -5688,7 +5725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
+    <row r="364" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="s">
         <v>343</v>
       </c>
@@ -5699,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
+    <row r="365" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A365" s="8" t="s">
         <v>343</v>
       </c>
@@ -5710,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
+    <row r="366" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
         <v>343</v>
       </c>
@@ -5721,7 +5758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
+    <row r="367" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
         <v>343</v>
       </c>
@@ -5732,7 +5769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row r="368" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A368" s="8" t="s">
         <v>343</v>
       </c>
@@ -5743,7 +5780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row r="369" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5754,7 +5791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row r="370" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5765,7 +5802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5776,7 +5813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5787,7 +5824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5798,7 +5835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row r="374" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5809,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5820,7 +5857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5831,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5842,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5853,7 +5890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5864,7 +5901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5875,7 +5912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5886,7 +5923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -5897,7 +5934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -5908,7 +5945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -5919,7 +5956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
+    <row r="385" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -5930,7 +5967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
+    <row r="386" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -5941,7 +5978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
+    <row r="387" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -5952,7 +5989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
+    <row r="388" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -5963,7 +6000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
+    <row r="389" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -5974,7 +6011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row r="390" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -5985,7 +6022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row r="391" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -5996,7 +6033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
+    <row r="392" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6007,7 +6044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row r="393" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6018,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
+    <row r="394" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6029,7 +6066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row r="395" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6040,29 +6077,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
+    <row r="396" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C396" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="21">
+      <c r="C396" s="4"/>
+    </row>
+    <row r="397" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C397" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="21">
+      <c r="C397" s="4"/>
+    </row>
+    <row r="398" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6073,7 +6106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row r="399" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6084,15 +6117,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
+    <row r="400" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
-    </row>
-    <row r="401" spans="1:3" ht="21">
+      <c r="C400" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B401" s="7"/>
-      <c r="C401" s="4"/>
-    </row>
-    <row r="402" spans="1:3" ht="21">
+      <c r="C401" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
         <v>387</v>
       </c>
@@ -6103,7 +6140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row r="403" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
         <v>387</v>
       </c>
@@ -6114,29 +6151,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row r="404" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
         <v>387</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C404" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" ht="21">
+      <c r="C404" s="4"/>
+    </row>
+    <row r="405" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
         <v>387</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C405" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" ht="21">
+      <c r="C405" s="4"/>
+    </row>
+    <row r="406" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
         <v>387</v>
       </c>
@@ -6147,7 +6180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row r="407" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
         <v>387</v>
       </c>
@@ -6158,15 +6191,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row r="408" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B408" s="7"/>
-      <c r="C408" s="4"/>
-    </row>
-    <row r="409" spans="1:3" ht="21">
+      <c r="C408" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B409" s="7"/>
-      <c r="C409" s="4"/>
-    </row>
-    <row r="410" spans="1:3" ht="21">
+      <c r="C409" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A410" s="5" t="s">
         <v>393</v>
       </c>
@@ -6177,7 +6214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row r="411" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A411" s="5" t="s">
         <v>393</v>
       </c>
@@ -6188,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row r="412" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A412" s="5" t="s">
         <v>393</v>
       </c>
@@ -6199,7 +6236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row r="413" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A413" s="5" t="s">
         <v>393</v>
       </c>
@@ -6210,7 +6247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A414" s="5" t="s">
         <v>393</v>
       </c>
@@ -6221,7 +6258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
+    <row r="415" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A415" s="5" t="s">
         <v>393</v>
       </c>
@@ -6232,7 +6269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row r="416" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A416" s="5" t="s">
         <v>393</v>
       </c>
@@ -6243,7 +6280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A417" s="5" t="s">
         <v>393</v>
       </c>
@@ -6254,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A418" s="5" t="s">
         <v>393</v>
       </c>
@@ -6265,7 +6302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A419" s="5" t="s">
         <v>393</v>
       </c>
@@ -6276,7 +6313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A420" s="5" t="s">
         <v>393</v>
       </c>
@@ -6287,7 +6324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A421" s="5" t="s">
         <v>393</v>
       </c>
@@ -6298,7 +6335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A422" s="5" t="s">
         <v>393</v>
       </c>
@@ -6309,7 +6346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A423" s="5" t="s">
         <v>393</v>
       </c>
@@ -6320,7 +6357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A424" s="5" t="s">
         <v>393</v>
       </c>
@@ -6331,7 +6368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A425" s="5" t="s">
         <v>393</v>
       </c>
@@ -6342,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A426" s="5" t="s">
         <v>393</v>
       </c>
@@ -6353,7 +6390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A427" s="5" t="s">
         <v>393</v>
       </c>
@@ -6364,7 +6401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A428" s="5" t="s">
         <v>393</v>
       </c>
@@ -6375,7 +6412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A429" s="5" t="s">
         <v>393</v>
       </c>
@@ -6386,7 +6423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A430" s="5" t="s">
         <v>393</v>
       </c>
@@ -6397,7 +6434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A431" s="5" t="s">
         <v>393</v>
       </c>
@@ -6408,7 +6445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A432" s="5" t="s">
         <v>393</v>
       </c>
@@ -6419,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A433" s="5" t="s">
         <v>393</v>
       </c>
@@ -6430,7 +6467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A434" s="5" t="s">
         <v>393</v>
       </c>
@@ -6441,7 +6478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A435" s="5" t="s">
         <v>393</v>
       </c>
@@ -6452,7 +6489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A436" s="5" t="s">
         <v>393</v>
       </c>
@@ -6463,7 +6500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A437" s="5" t="s">
         <v>393</v>
       </c>
@@ -6474,7 +6511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A438" s="5" t="s">
         <v>393</v>
       </c>
@@ -6485,7 +6522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A439" s="5" t="s">
         <v>393</v>
       </c>
@@ -6496,7 +6533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A440" s="5" t="s">
         <v>393</v>
       </c>
@@ -6507,7 +6544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A441" s="5" t="s">
         <v>393</v>
       </c>
@@ -6518,7 +6555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A442" s="5" t="s">
         <v>393</v>
       </c>
@@ -6529,7 +6566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A443" s="5" t="s">
         <v>393</v>
       </c>
@@ -6540,7 +6577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A444" s="5" t="s">
         <v>393</v>
       </c>
@@ -6551,7 +6588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row r="445" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A445" s="5" t="s">
         <v>393</v>
       </c>
@@ -6562,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A446" s="5" t="s">
         <v>393</v>
       </c>
@@ -6573,7 +6610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A447" s="5" t="s">
         <v>393</v>
       </c>
@@ -6584,7 +6621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A448" s="5" t="s">
         <v>393</v>
       </c>
@@ -6595,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A449" s="5" t="s">
         <v>393</v>
       </c>
@@ -6606,7 +6643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A450" s="5" t="s">
         <v>393</v>
       </c>
@@ -6617,7 +6654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A451" s="5" t="s">
         <v>393</v>
       </c>
@@ -6628,7 +6665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A452" s="5" t="s">
         <v>393</v>
       </c>
@@ -6639,7 +6676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A453" s="5" t="s">
         <v>393</v>
       </c>
@@ -6650,7 +6687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A454" s="5" t="s">
         <v>393</v>
       </c>
@@ -6661,7 +6698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A455" s="5" t="s">
         <v>393</v>
       </c>
@@ -6672,7 +6709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A456" s="5" t="s">
         <v>393</v>
       </c>
@@ -6683,7 +6720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A457" s="5" t="s">
         <v>393</v>
       </c>
@@ -6694,7 +6731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A458" s="5" t="s">
         <v>393</v>
       </c>
@@ -6705,7 +6742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A459" s="5" t="s">
         <v>393</v>
       </c>
@@ -6716,7 +6753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A460" s="5" t="s">
         <v>393</v>
       </c>
@@ -6727,7 +6764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A461" s="5" t="s">
         <v>393</v>
       </c>
@@ -6738,7 +6775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A462" s="5" t="s">
         <v>393</v>
       </c>
@@ -6749,7 +6786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A463" s="5" t="s">
         <v>393</v>
       </c>
@@ -6760,7 +6797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A464" s="5" t="s">
         <v>393</v>
       </c>
@@ -6771,7 +6808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A465" s="5" t="s">
         <v>393</v>
       </c>
@@ -6782,29 +6819,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A466" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C466" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" ht="21">
+      <c r="C466" s="4"/>
+    </row>
+    <row r="467" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A467" s="5" t="s">
         <v>393</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C467" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="21">
+      <c r="C467" s="4"/>
+    </row>
+    <row r="468" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A468" s="5" t="s">
         <v>393</v>
       </c>
@@ -6815,7 +6848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A469" s="5" t="s">
         <v>393</v>
       </c>
@@ -6826,16 +6859,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row r="470" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="B470" s="7"/>
-      <c r="C470" s="4"/>
-    </row>
-    <row r="471" spans="1:3" ht="21">
+      <c r="C470" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
-      <c r="C471" s="4"/>
-    </row>
-    <row r="472" spans="1:3" ht="21">
+      <c r="C471" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A472" s="5" t="s">
         <v>453</v>
       </c>
@@ -6846,7 +6883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A473" s="5" t="s">
         <v>453</v>
       </c>
@@ -6857,7 +6894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A474" s="5" t="s">
         <v>453</v>
       </c>
@@ -6868,7 +6905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A475" s="5" t="s">
         <v>453</v>
       </c>
@@ -6879,7 +6916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row r="476" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A476" s="5" t="s">
         <v>453</v>
       </c>
@@ -6890,7 +6927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row r="477" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A477" s="5" t="s">
         <v>453</v>
       </c>
@@ -6901,48 +6938,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A478" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C478" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="21">
+    </row>
+    <row r="479" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A479" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C479" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="21">
+    </row>
+    <row r="480" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A480" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C480" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="21">
+    </row>
+    <row r="481" spans="1:2" ht="21" x14ac:dyDescent="0.3">
       <c r="A481" s="5" t="s">
         <v>453</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="C481" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DSA Sheet/FINAL450.xlsx
+++ b/DSA Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASHUTOSH\Java Practice Question\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{394C6268-7FD5-4BDA-B6F1-582AA785E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C77871-2832-4E1A-9950-EA601FE19F63}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{394C6268-7FD5-4BDA-B6F1-582AA785E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B869179-35B4-4128-96A3-B35DE7283EAD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2167,8 +2167,8 @@
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
+      <c r="C26" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.3">
@@ -2244,8 +2244,8 @@
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
+      <c r="C33" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.3">

--- a/DSA Sheet/FINAL450.xlsx
+++ b/DSA Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASHUTOSH\Java Practice Question\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{394C6268-7FD5-4BDA-B6F1-582AA785E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B869179-35B4-4128-96A3-B35DE7283EAD}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{394C6268-7FD5-4BDA-B6F1-582AA785E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0236621-4A80-4A58-BBDC-89E693F48001}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1585,6 +1585,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1903,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2112,8 +2115,8 @@
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
+      <c r="C21" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.3">
@@ -2123,8 +2126,8 @@
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
+      <c r="C22" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.3">
@@ -2473,8 +2476,8 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
+      <c r="C56" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21" x14ac:dyDescent="0.3">
@@ -2484,8 +2487,8 @@
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
+      <c r="C57" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21" x14ac:dyDescent="0.3">

--- a/DSA Sheet/FINAL450.xlsx
+++ b/DSA Sheet/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ASHUTOSH\Java Practice Question\DSA Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{394C6268-7FD5-4BDA-B6F1-582AA785E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0236621-4A80-4A58-BBDC-89E693F48001}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{394C6268-7FD5-4BDA-B6F1-582AA785E3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A212E066-2E5B-4B5A-B69B-235AAF56789F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,6 +1539,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,7 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,6 +1594,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1906,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2575,8 +2584,8 @@
       <c r="B65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>4</v>
+      <c r="C65" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21" x14ac:dyDescent="0.3">
@@ -3099,7 +3108,7 @@
       <c r="B114" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="14" t="s">
         <v>4</v>
       </c>
     </row>
